--- a/simulations/PH_ferrite_n20/grain_1441_sr_0p1/iteration/1/parameters.xlsx
+++ b/simulations/PH_ferrite_n20/grain_1441_sr_0p1/iteration/1/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>247.2573453116699</v>
+        <v>201.0273568977682</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5000644746287618</v>
+        <v>0.500105771138163</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3598.79934514589</v>
+        <v>3000.198320884056</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>369.9959143650991</v>
+        <v>380.615114768009</v>
       </c>
     </row>
   </sheetData>
